--- a/Gojo Converter/Gojo_Menu.xlsx
+++ b/Gojo Converter/Gojo_Menu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OWR Laptop\Desktop\Gojo Converter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justin/Documents/GitHub/GojoConverter/Gojo Converter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69B7D5E6-DC19-4159-B2BF-B9D9D64FA0A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61F122E-274C-E24B-A49C-6AB36FEDFD79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8820" xr2:uid="{406761C6-FDC3-401F-AF78-7470C3A0BB9E}"/>
+    <workbookView xWindow="1880" yWindow="1880" windowWidth="17280" windowHeight="8820" activeTab="1" xr2:uid="{406761C6-FDC3-401F-AF78-7470C3A0BB9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Primo - Camping" sheetId="3" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="117">
   <si>
     <t>SQUARE Menu</t>
   </si>
@@ -415,6 +415,15 @@
   </si>
   <si>
     <t>Ohh la laa</t>
+  </si>
+  <si>
+    <t>snack</t>
+  </si>
+  <si>
+    <t>waluigi</t>
+  </si>
+  <si>
+    <t>drinks</t>
   </si>
 </sst>
 </file>
@@ -1220,7 +1229,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="777240" y="3146878"/>
+          <a:off x="840740" y="3225618"/>
           <a:ext cx="311230" cy="264883"/>
           <a:chOff x="1847850" y="4562475"/>
           <a:chExt cx="447675" cy="381000"/>
@@ -2136,7 +2145,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="778914" y="3550920"/>
+          <a:off x="842414" y="3637280"/>
           <a:ext cx="297996" cy="245021"/>
           <a:chOff x="1857375" y="5410200"/>
           <a:chExt cx="428625" cy="352425"/>
@@ -4961,7 +4970,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="769620" y="3131638"/>
+          <a:off x="840740" y="3225618"/>
           <a:ext cx="311230" cy="264883"/>
           <a:chOff x="1847850" y="4562475"/>
           <a:chExt cx="447675" cy="381000"/>
@@ -5877,7 +5886,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="771294" y="3528060"/>
+          <a:off x="842414" y="3637280"/>
           <a:ext cx="297996" cy="245021"/>
           <a:chOff x="1857375" y="5410200"/>
           <a:chExt cx="428625" cy="352425"/>
@@ -8577,22 +8586,22 @@
   </sheetPr>
   <dimension ref="B9:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C45" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView topLeftCell="C37" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="8.88671875" style="4"/>
-    <col min="3" max="3" width="55.109375" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="4"/>
+    <col min="3" max="3" width="55.1640625" customWidth="1"/>
     <col min="4" max="4" width="32.33203125" customWidth="1"/>
-    <col min="5" max="5" width="19.77734375" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" customWidth="1"/>
-    <col min="8" max="8" width="25.5546875" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+    <col min="8" max="8" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="2:8" ht="47.4" x14ac:dyDescent="0.9">
+    <row r="9" spans="2:8" ht="47" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
@@ -8607,7 +8616,7 @@
       </c>
       <c r="H9" s="31"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C11" s="27" t="s">
         <v>2</v>
       </c>
@@ -8619,7 +8628,7 @@
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C12" s="27"/>
       <c r="D12" s="28"/>
       <c r="E12" s="28"/>
@@ -8627,10 +8636,10 @@
       <c r="G12" s="28"/>
       <c r="H12" s="28"/>
     </row>
-    <row r="13" spans="2:8" ht="3.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" ht="3.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13"/>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C14" s="27" t="s">
         <v>4</v>
       </c>
@@ -8642,7 +8651,7 @@
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C15" s="27"/>
       <c r="D15" s="28"/>
       <c r="E15" s="28"/>
@@ -8650,10 +8659,10 @@
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
     </row>
-    <row r="16" spans="2:8" ht="3.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" ht="3.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C17" s="27" t="s">
         <v>6</v>
       </c>
@@ -8665,7 +8674,7 @@
       <c r="G17" s="28"/>
       <c r="H17" s="28"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C18" s="27"/>
       <c r="D18" s="28"/>
       <c r="E18" s="28"/>
@@ -8673,10 +8682,10 @@
       <c r="G18" s="28"/>
       <c r="H18" s="28"/>
     </row>
-    <row r="19" spans="2:8" ht="3.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" ht="3.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C20" s="27" t="s">
         <v>8</v>
       </c>
@@ -8688,7 +8697,7 @@
       <c r="G20" s="28"/>
       <c r="H20" s="28"/>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C21" s="27"/>
       <c r="D21" s="28"/>
       <c r="E21" s="28"/>
@@ -8696,7 +8705,7 @@
       <c r="G21" s="28"/>
       <c r="H21" s="28"/>
     </row>
-    <row r="24" spans="2:8" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F24" s="5" t="s">
         <v>9</v>
       </c>
@@ -8707,14 +8716,14 @@
         <v>64</v>
       </c>
     </row>
-    <row r="25" spans="2:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" ht="42.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F25" s="5"/>
       <c r="G25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="2:8" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:8" s="10" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="B26" s="9" t="s">
         <v>14</v>
       </c>
@@ -8737,7 +8746,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="11">
         <v>1</v>
       </c>
@@ -8760,7 +8769,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="14">
         <v>2</v>
       </c>
@@ -8783,7 +8792,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="11">
         <v>3</v>
       </c>
@@ -8806,7 +8815,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="2:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="14">
         <v>4</v>
       </c>
@@ -8829,7 +8838,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="2:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="11">
         <v>5</v>
       </c>
@@ -8852,7 +8861,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="2:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="14">
         <v>6</v>
       </c>
@@ -8875,7 +8884,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="11">
         <v>7</v>
       </c>
@@ -8898,7 +8907,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="2:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="14">
         <v>8</v>
       </c>
@@ -8917,7 +8926,7 @@
       </c>
       <c r="H34" s="15"/>
     </row>
-    <row r="35" spans="2:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="11">
         <v>9</v>
       </c>
@@ -8936,7 +8945,7 @@
       </c>
       <c r="H35" s="12"/>
     </row>
-    <row r="36" spans="2:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="14">
         <v>10</v>
       </c>
@@ -8953,7 +8962,7 @@
       <c r="G36" s="21"/>
       <c r="H36" s="15"/>
     </row>
-    <row r="37" spans="2:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="11">
         <v>11</v>
       </c>
@@ -8970,7 +8979,7 @@
       <c r="G37" s="25"/>
       <c r="H37" s="12"/>
     </row>
-    <row r="38" spans="2:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="14">
         <v>12</v>
       </c>
@@ -8987,7 +8996,7 @@
       <c r="G38" s="21"/>
       <c r="H38" s="15"/>
     </row>
-    <row r="39" spans="2:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="11">
         <v>13</v>
       </c>
@@ -9004,7 +9013,7 @@
       <c r="G39" s="25"/>
       <c r="H39" s="12"/>
     </row>
-    <row r="40" spans="2:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="14">
         <v>14</v>
       </c>
@@ -9015,7 +9024,7 @@
       <c r="G40" s="15"/>
       <c r="H40" s="15"/>
     </row>
-    <row r="41" spans="2:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="11">
         <v>15</v>
       </c>
@@ -9036,7 +9045,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="14">
         <v>16</v>
       </c>
@@ -9046,7 +9055,9 @@
       <c r="D42" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="E42" s="15"/>
+      <c r="E42" s="15" t="s">
+        <v>115</v>
+      </c>
       <c r="F42" s="16">
         <v>7</v>
       </c>
@@ -9057,7 +9068,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="2:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="11">
         <v>17</v>
       </c>
@@ -9068,7 +9079,7 @@
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
     </row>
-    <row r="44" spans="2:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="14">
         <v>18</v>
       </c>
@@ -9079,7 +9090,7 @@
       <c r="G44" s="15"/>
       <c r="H44" s="15"/>
     </row>
-    <row r="45" spans="2:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="11">
         <v>19</v>
       </c>
@@ -9098,7 +9109,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="46" spans="2:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="14">
         <v>20</v>
       </c>
@@ -9117,7 +9128,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="2:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="11">
         <v>21</v>
       </c>
@@ -9136,7 +9147,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="48" spans="2:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="14">
         <v>22</v>
       </c>
@@ -9146,7 +9157,9 @@
       <c r="D48" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="E48" s="15"/>
+      <c r="E48" s="15" t="s">
+        <v>114</v>
+      </c>
       <c r="F48" s="16">
         <v>12</v>
       </c>
@@ -9155,7 +9168,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="49" spans="2:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="11">
         <v>23</v>
       </c>
@@ -9166,7 +9179,7 @@
       <c r="G49" s="12"/>
       <c r="H49" s="12"/>
     </row>
-    <row r="50" spans="2:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="14">
         <v>24</v>
       </c>
@@ -9177,7 +9190,7 @@
       <c r="G50" s="15"/>
       <c r="H50" s="15"/>
     </row>
-    <row r="51" spans="2:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="11">
         <v>25</v>
       </c>
@@ -9188,7 +9201,7 @@
       <c r="G51" s="12"/>
       <c r="H51" s="12"/>
     </row>
-    <row r="52" spans="2:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="14">
         <v>26</v>
       </c>
@@ -9199,7 +9212,7 @@
       <c r="G52" s="15"/>
       <c r="H52" s="15"/>
     </row>
-    <row r="53" spans="2:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="11">
         <v>27</v>
       </c>
@@ -9210,7 +9223,7 @@
       <c r="G53" s="12"/>
       <c r="H53" s="12"/>
     </row>
-    <row r="54" spans="2:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="14">
         <v>28</v>
       </c>
@@ -9221,7 +9234,7 @@
       <c r="G54" s="15"/>
       <c r="H54" s="15"/>
     </row>
-    <row r="55" spans="2:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="11">
         <v>29</v>
       </c>
@@ -9232,7 +9245,7 @@
       <c r="G55" s="12"/>
       <c r="H55" s="12"/>
     </row>
-    <row r="56" spans="2:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="14">
         <v>30</v>
       </c>
@@ -9243,7 +9256,7 @@
       <c r="G56" s="15"/>
       <c r="H56" s="15"/>
     </row>
-    <row r="57" spans="2:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="11">
         <v>31</v>
       </c>
@@ -9254,7 +9267,7 @@
       <c r="G57" s="12"/>
       <c r="H57" s="12"/>
     </row>
-    <row r="58" spans="2:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="14">
         <v>32</v>
       </c>
@@ -9265,7 +9278,7 @@
       <c r="G58" s="15"/>
       <c r="H58" s="15"/>
     </row>
-    <row r="59" spans="2:8" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:8" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="11">
         <v>33</v>
       </c>
@@ -9276,7 +9289,7 @@
       <c r="G59" s="12"/>
       <c r="H59" s="12"/>
     </row>
-    <row r="61" spans="2:8" ht="21" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:8" ht="22" x14ac:dyDescent="0.3">
       <c r="B61" s="17" t="s">
         <v>53</v>
       </c>
@@ -9287,7 +9300,7 @@
       <c r="G61" s="18"/>
       <c r="H61" s="19"/>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B62" s="29"/>
       <c r="C62" s="29"/>
       <c r="D62" s="29"/>
@@ -9296,7 +9309,7 @@
       <c r="G62" s="29"/>
       <c r="H62" s="29"/>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B63" s="29"/>
       <c r="C63" s="29"/>
       <c r="D63" s="29"/>
@@ -9305,7 +9318,7 @@
       <c r="G63" s="29"/>
       <c r="H63" s="29"/>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B64" s="29"/>
       <c r="C64" s="29"/>
       <c r="D64" s="29"/>
@@ -9314,7 +9327,7 @@
       <c r="G64" s="29"/>
       <c r="H64" s="29"/>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B65" s="29"/>
       <c r="C65" s="29"/>
       <c r="D65" s="29"/>
@@ -9323,7 +9336,7 @@
       <c r="G65" s="29"/>
       <c r="H65" s="29"/>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B66" s="29"/>
       <c r="C66" s="29"/>
       <c r="D66" s="29"/>
@@ -9332,7 +9345,7 @@
       <c r="G66" s="29"/>
       <c r="H66" s="29"/>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B67" s="29"/>
       <c r="C67" s="29"/>
       <c r="D67" s="29"/>
@@ -9341,7 +9354,7 @@
       <c r="G67" s="29"/>
       <c r="H67" s="29"/>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B68" s="29"/>
       <c r="C68" s="29"/>
       <c r="D68" s="29"/>
@@ -9350,7 +9363,7 @@
       <c r="G68" s="29"/>
       <c r="H68" s="29"/>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B69" s="29"/>
       <c r="C69" s="29"/>
       <c r="D69" s="29"/>
@@ -9359,7 +9372,7 @@
       <c r="G69" s="29"/>
       <c r="H69" s="29"/>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B70" s="29"/>
       <c r="C70" s="29"/>
       <c r="D70" s="29"/>
@@ -9368,7 +9381,7 @@
       <c r="G70" s="29"/>
       <c r="H70" s="29"/>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B71" s="29"/>
       <c r="C71" s="29"/>
       <c r="D71" s="29"/>
@@ -9377,7 +9390,7 @@
       <c r="G71" s="29"/>
       <c r="H71" s="29"/>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B72" s="29"/>
       <c r="C72" s="29"/>
       <c r="D72" s="29"/>
@@ -9386,7 +9399,7 @@
       <c r="G72" s="29"/>
       <c r="H72" s="29"/>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B73" s="29"/>
       <c r="C73" s="29"/>
       <c r="D73" s="29"/>
@@ -9395,7 +9408,7 @@
       <c r="G73" s="29"/>
       <c r="H73" s="29"/>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B74" s="29"/>
       <c r="C74" s="29"/>
       <c r="D74" s="29"/>
@@ -9404,7 +9417,7 @@
       <c r="G74" s="29"/>
       <c r="H74" s="29"/>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B75" s="29"/>
       <c r="C75" s="29"/>
       <c r="D75" s="29"/>
@@ -9441,22 +9454,22 @@
   </sheetPr>
   <dimension ref="B9:I75"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="8.77734375" style="4"/>
-    <col min="3" max="3" width="55.109375" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="4"/>
+    <col min="3" max="3" width="55.1640625" customWidth="1"/>
     <col min="4" max="4" width="32.33203125" customWidth="1"/>
-    <col min="5" max="5" width="19.77734375" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="9" width="25.44140625" customWidth="1"/>
+    <col min="8" max="9" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="2:9" ht="47.4" x14ac:dyDescent="0.9">
+    <row r="9" spans="2:9" ht="47" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="1" t="s">
         <v>0</v>
       </c>
@@ -9472,7 +9485,7 @@
       <c r="H9" s="30"/>
       <c r="I9" s="31"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C11" s="27" t="s">
         <v>2</v>
       </c>
@@ -9485,7 +9498,7 @@
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C12" s="27"/>
       <c r="D12" s="28"/>
       <c r="E12" s="28"/>
@@ -9494,10 +9507,10 @@
       <c r="H12" s="28"/>
       <c r="I12" s="28"/>
     </row>
-    <row r="13" spans="2:9" ht="3.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" ht="3.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C14" s="27" t="s">
         <v>4</v>
       </c>
@@ -9510,7 +9523,7 @@
       <c r="H14" s="28"/>
       <c r="I14" s="28"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C15" s="27"/>
       <c r="D15" s="28"/>
       <c r="E15" s="28"/>
@@ -9519,10 +9532,10 @@
       <c r="H15" s="28"/>
       <c r="I15" s="28"/>
     </row>
-    <row r="16" spans="2:9" ht="3.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" ht="3.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C17" s="27" t="s">
         <v>6</v>
       </c>
@@ -9535,7 +9548,7 @@
       <c r="H17" s="28"/>
       <c r="I17" s="28"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C18" s="27"/>
       <c r="D18" s="28"/>
       <c r="E18" s="28"/>
@@ -9544,10 +9557,10 @@
       <c r="H18" s="28"/>
       <c r="I18" s="28"/>
     </row>
-    <row r="19" spans="2:9" ht="3.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" ht="3.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C20" s="27" t="s">
         <v>8</v>
       </c>
@@ -9560,7 +9573,7 @@
       <c r="H20" s="28"/>
       <c r="I20" s="28"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
       <c r="C21" s="27"/>
       <c r="D21" s="28"/>
       <c r="E21" s="28"/>
@@ -9569,7 +9582,7 @@
       <c r="H21" s="28"/>
       <c r="I21" s="28"/>
     </row>
-    <row r="24" spans="2:9" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F24" s="5" t="s">
         <v>9</v>
       </c>
@@ -9581,7 +9594,7 @@
       </c>
       <c r="I24" s="32"/>
     </row>
-    <row r="25" spans="2:9" ht="42.45" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:9" ht="42.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F25" s="5"/>
       <c r="G25" s="7" t="s">
         <v>12</v>
@@ -9591,7 +9604,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="2:9" s="10" customFormat="1" ht="21" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:9" s="10" customFormat="1" ht="22" x14ac:dyDescent="0.3">
       <c r="B26" s="9" t="s">
         <v>14</v>
       </c>
@@ -9617,7 +9630,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="11">
         <v>1</v>
       </c>
@@ -9641,7 +9654,7 @@
       </c>
       <c r="I27" s="12"/>
     </row>
-    <row r="28" spans="2:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="14">
         <v>2</v>
       </c>
@@ -9665,7 +9678,7 @@
       </c>
       <c r="I28" s="15"/>
     </row>
-    <row r="29" spans="2:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="11">
         <v>3</v>
       </c>
@@ -9689,7 +9702,7 @@
       </c>
       <c r="I29" s="12"/>
     </row>
-    <row r="30" spans="2:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="14">
         <v>4</v>
       </c>
@@ -9713,7 +9726,7 @@
       </c>
       <c r="I30" s="15"/>
     </row>
-    <row r="31" spans="2:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="11">
         <v>5</v>
       </c>
@@ -9737,7 +9750,7 @@
       </c>
       <c r="I31" s="12"/>
     </row>
-    <row r="32" spans="2:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="14">
         <v>6</v>
       </c>
@@ -9761,7 +9774,7 @@
       </c>
       <c r="I32" s="15"/>
     </row>
-    <row r="33" spans="2:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="11">
         <v>7</v>
       </c>
@@ -9785,7 +9798,7 @@
       </c>
       <c r="I33" s="12"/>
     </row>
-    <row r="34" spans="2:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="14">
         <v>8</v>
       </c>
@@ -9809,7 +9822,7 @@
       </c>
       <c r="I34" s="15"/>
     </row>
-    <row r="35" spans="2:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="11">
         <v>9</v>
       </c>
@@ -9833,7 +9846,7 @@
       </c>
       <c r="I35" s="12"/>
     </row>
-    <row r="36" spans="2:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="14">
         <v>10</v>
       </c>
@@ -9857,7 +9870,7 @@
       </c>
       <c r="I36" s="15"/>
     </row>
-    <row r="37" spans="2:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="11">
         <v>11</v>
       </c>
@@ -9881,7 +9894,7 @@
       </c>
       <c r="I37" s="12"/>
     </row>
-    <row r="38" spans="2:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="14">
         <v>12</v>
       </c>
@@ -9905,7 +9918,7 @@
       </c>
       <c r="I38" s="15"/>
     </row>
-    <row r="39" spans="2:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="11">
         <v>13</v>
       </c>
@@ -9917,7 +9930,7 @@
       <c r="H39" s="12"/>
       <c r="I39" s="12"/>
     </row>
-    <row r="40" spans="2:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="14">
         <v>14</v>
       </c>
@@ -9939,7 +9952,7 @@
       </c>
       <c r="I40" s="15"/>
     </row>
-    <row r="41" spans="2:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="11">
         <v>15</v>
       </c>
@@ -9949,7 +9962,9 @@
       <c r="D41" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E41" s="12"/>
+      <c r="E41" s="12" t="s">
+        <v>116</v>
+      </c>
       <c r="F41" s="13">
         <v>5</v>
       </c>
@@ -9959,7 +9974,7 @@
       <c r="H41" s="12"/>
       <c r="I41" s="12"/>
     </row>
-    <row r="42" spans="2:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="14">
         <v>16</v>
       </c>
@@ -9971,7 +9986,7 @@
       <c r="H42" s="15"/>
       <c r="I42" s="15"/>
     </row>
-    <row r="43" spans="2:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="11">
         <v>17</v>
       </c>
@@ -9983,7 +9998,7 @@
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
     </row>
-    <row r="44" spans="2:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="14">
         <v>18</v>
       </c>
@@ -9995,7 +10010,7 @@
       <c r="H44" s="15"/>
       <c r="I44" s="15"/>
     </row>
-    <row r="45" spans="2:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="11">
         <v>19</v>
       </c>
@@ -10007,7 +10022,7 @@
       <c r="H45" s="12"/>
       <c r="I45" s="12"/>
     </row>
-    <row r="46" spans="2:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="14">
         <v>20</v>
       </c>
@@ -10019,7 +10034,7 @@
       <c r="H46" s="15"/>
       <c r="I46" s="15"/>
     </row>
-    <row r="47" spans="2:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="11">
         <v>21</v>
       </c>
@@ -10031,7 +10046,7 @@
       <c r="H47" s="12"/>
       <c r="I47" s="12"/>
     </row>
-    <row r="48" spans="2:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="14">
         <v>22</v>
       </c>
@@ -10043,7 +10058,7 @@
       <c r="H48" s="15"/>
       <c r="I48" s="15"/>
     </row>
-    <row r="49" spans="2:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="11">
         <v>23</v>
       </c>
@@ -10055,7 +10070,7 @@
       <c r="H49" s="12"/>
       <c r="I49" s="12"/>
     </row>
-    <row r="50" spans="2:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="14">
         <v>24</v>
       </c>
@@ -10067,7 +10082,7 @@
       <c r="H50" s="15"/>
       <c r="I50" s="15"/>
     </row>
-    <row r="51" spans="2:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="11">
         <v>25</v>
       </c>
@@ -10079,7 +10094,7 @@
       <c r="H51" s="12"/>
       <c r="I51" s="12"/>
     </row>
-    <row r="52" spans="2:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="14">
         <v>26</v>
       </c>
@@ -10091,7 +10106,7 @@
       <c r="H52" s="15"/>
       <c r="I52" s="15"/>
     </row>
-    <row r="53" spans="2:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="11">
         <v>27</v>
       </c>
@@ -10103,7 +10118,7 @@
       <c r="H53" s="12"/>
       <c r="I53" s="12"/>
     </row>
-    <row r="54" spans="2:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="14">
         <v>28</v>
       </c>
@@ -10115,7 +10130,7 @@
       <c r="H54" s="15"/>
       <c r="I54" s="15"/>
     </row>
-    <row r="55" spans="2:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="11">
         <v>29</v>
       </c>
@@ -10127,7 +10142,7 @@
       <c r="H55" s="12"/>
       <c r="I55" s="12"/>
     </row>
-    <row r="56" spans="2:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="14">
         <v>30</v>
       </c>
@@ -10139,7 +10154,7 @@
       <c r="H56" s="15"/>
       <c r="I56" s="15"/>
     </row>
-    <row r="57" spans="2:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="11">
         <v>31</v>
       </c>
@@ -10151,7 +10166,7 @@
       <c r="H57" s="12"/>
       <c r="I57" s="12"/>
     </row>
-    <row r="58" spans="2:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="14">
         <v>32</v>
       </c>
@@ -10163,7 +10178,7 @@
       <c r="H58" s="15"/>
       <c r="I58" s="15"/>
     </row>
-    <row r="59" spans="2:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="11">
         <v>33</v>
       </c>
@@ -10175,7 +10190,7 @@
       <c r="H59" s="12"/>
       <c r="I59" s="12"/>
     </row>
-    <row r="61" spans="2:9" ht="21" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:9" ht="22" x14ac:dyDescent="0.3">
       <c r="B61" s="17" t="s">
         <v>53</v>
       </c>
@@ -10187,7 +10202,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B62" s="33" t="s">
         <v>55</v>
       </c>
@@ -10199,7 +10214,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B63" s="33"/>
       <c r="C63" s="33"/>
       <c r="D63" s="33"/>
@@ -10209,7 +10224,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B64" s="33"/>
       <c r="C64" s="33"/>
       <c r="D64" s="33"/>
@@ -10219,7 +10234,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B65" s="33"/>
       <c r="C65" s="33"/>
       <c r="D65" s="33"/>
@@ -10229,7 +10244,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B66" s="33"/>
       <c r="C66" s="33"/>
       <c r="D66" s="33"/>
@@ -10237,7 +10252,7 @@
       <c r="F66" s="33"/>
       <c r="H66" s="20"/>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B67" s="33"/>
       <c r="C67" s="33"/>
       <c r="D67" s="33"/>
@@ -10247,7 +10262,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B68" s="33"/>
       <c r="C68" s="33"/>
       <c r="D68" s="33"/>
@@ -10257,7 +10272,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B69" s="33"/>
       <c r="C69" s="33"/>
       <c r="D69" s="33"/>
@@ -10267,7 +10282,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B70" s="33"/>
       <c r="C70" s="33"/>
       <c r="D70" s="33"/>
@@ -10275,7 +10290,7 @@
       <c r="F70" s="33"/>
       <c r="H70" s="20"/>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B71" s="33"/>
       <c r="C71" s="33"/>
       <c r="D71" s="33"/>
@@ -10285,7 +10300,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B72" s="33"/>
       <c r="C72" s="33"/>
       <c r="D72" s="33"/>
@@ -10293,7 +10308,7 @@
       <c r="F72" s="33"/>
       <c r="H72" s="20"/>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B73" s="33"/>
       <c r="C73" s="33"/>
       <c r="D73" s="33"/>
@@ -10301,7 +10316,7 @@
       <c r="F73" s="33"/>
       <c r="H73" s="20"/>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B74" s="33"/>
       <c r="C74" s="33"/>
       <c r="D74" s="33"/>
@@ -10309,7 +10324,7 @@
       <c r="F74" s="33"/>
       <c r="H74" s="20"/>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B75" s="33"/>
       <c r="C75" s="33"/>
       <c r="D75" s="33"/>
